--- a/fuzzy_stability_analysis/results/fuz_stability_link/XS/correlations_matrixes.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/XS/correlations_matrixes.xlsx
@@ -20,28 +20,28 @@
     <t>Fuzziness coefficient: 1.5</t>
   </si>
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>fuz_1.5_entropy</t>
@@ -492,28 +492,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.427</v>
+        <v>-0.57</v>
       </c>
       <c r="C3">
-        <v>-0.488</v>
+        <v>-0.644</v>
       </c>
       <c r="D3">
-        <v>-0.57</v>
+        <v>-0.704</v>
       </c>
       <c r="E3">
-        <v>-0.644</v>
+        <v>-0.723</v>
       </c>
       <c r="F3">
-        <v>-0.429</v>
+        <v>-0.574</v>
       </c>
       <c r="G3">
-        <v>-0.492</v>
+        <v>-0.646</v>
       </c>
       <c r="H3">
-        <v>-0.574</v>
+        <v>-0.704</v>
       </c>
       <c r="I3">
-        <v>-0.646</v>
+        <v>-0.722</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -521,28 +521,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.694</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C4">
-        <v>0.755</v>
+        <v>0.851</v>
       </c>
       <c r="D4">
-        <v>0.8159999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="E4">
-        <v>0.851</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F4">
-        <v>0.696</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="G4">
-        <v>0.757</v>
+        <v>0.85</v>
       </c>
       <c r="H4">
-        <v>0.8169999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.259</v>
+        <v>-0.38</v>
       </c>
       <c r="C8">
-        <v>-0.305</v>
+        <v>-0.467</v>
       </c>
       <c r="D8">
-        <v>-0.38</v>
+        <v>-0.5590000000000001</v>
       </c>
       <c r="E8">
-        <v>-0.467</v>
+        <v>-0.622</v>
       </c>
       <c r="F8">
-        <v>-0.263</v>
+        <v>-0.385</v>
       </c>
       <c r="G8">
-        <v>-0.31</v>
+        <v>-0.469</v>
       </c>
       <c r="H8">
-        <v>-0.385</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="I8">
-        <v>-0.469</v>
+        <v>-0.623</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -610,28 +610,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.421</v>
+        <v>0.57</v>
       </c>
       <c r="C9">
-        <v>0.484</v>
+        <v>0.655</v>
       </c>
       <c r="D9">
-        <v>0.57</v>
+        <v>0.733</v>
       </c>
       <c r="E9">
+        <v>0.77</v>
+      </c>
+      <c r="F9">
+        <v>0.574</v>
+      </c>
+      <c r="G9">
         <v>0.655</v>
       </c>
-      <c r="F9">
-        <v>0.424</v>
-      </c>
-      <c r="G9">
-        <v>0.488</v>
-      </c>
       <c r="H9">
-        <v>0.574</v>
+        <v>0.731</v>
       </c>
       <c r="I9">
-        <v>0.655</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.186</v>
+        <v>-0.285</v>
       </c>
       <c r="C13">
-        <v>-0.222</v>
+        <v>-0.367</v>
       </c>
       <c r="D13">
-        <v>-0.285</v>
+        <v>-0.461</v>
       </c>
       <c r="E13">
-        <v>-0.367</v>
+        <v>-0.534</v>
       </c>
       <c r="F13">
-        <v>-0.19</v>
+        <v>-0.292</v>
       </c>
       <c r="G13">
-        <v>-0.228</v>
+        <v>-0.371</v>
       </c>
       <c r="H13">
-        <v>-0.292</v>
+        <v>-0.468</v>
       </c>
       <c r="I13">
-        <v>-0.371</v>
+        <v>-0.543</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="C14">
-        <v>0.324</v>
+        <v>0.508</v>
       </c>
       <c r="D14">
-        <v>0.41</v>
+        <v>0.612</v>
       </c>
       <c r="E14">
-        <v>0.508</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F14">
-        <v>0.275</v>
+        <v>0.416</v>
       </c>
       <c r="G14">
-        <v>0.331</v>
+        <v>0.511</v>
       </c>
       <c r="H14">
-        <v>0.416</v>
+        <v>0.616</v>
       </c>
       <c r="I14">
-        <v>0.511</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -759,28 +759,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.099</v>
+        <v>-0.148</v>
       </c>
       <c r="C18">
-        <v>-0.113</v>
+        <v>-0.203</v>
       </c>
       <c r="D18">
-        <v>-0.148</v>
+        <v>-0.272</v>
       </c>
       <c r="E18">
-        <v>-0.203</v>
+        <v>-0.331</v>
       </c>
       <c r="F18">
-        <v>-0.11</v>
+        <v>-0.179</v>
       </c>
       <c r="G18">
-        <v>-0.132</v>
+        <v>-0.238</v>
       </c>
       <c r="H18">
-        <v>-0.179</v>
+        <v>-0.329</v>
       </c>
       <c r="I18">
-        <v>-0.238</v>
+        <v>-0.402</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -788,28 +788,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.091</v>
+        <v>0.136</v>
       </c>
       <c r="C19">
-        <v>0.103</v>
+        <v>0.196</v>
       </c>
       <c r="D19">
-        <v>0.136</v>
+        <v>0.285</v>
       </c>
       <c r="E19">
-        <v>0.196</v>
+        <v>0.378</v>
       </c>
       <c r="F19">
-        <v>0.108</v>
+        <v>0.171</v>
       </c>
       <c r="G19">
-        <v>0.129</v>
+        <v>0.232</v>
       </c>
       <c r="H19">
-        <v>0.171</v>
+        <v>0.337</v>
       </c>
       <c r="I19">
-        <v>0.232</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -848,28 +848,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.113</v>
+        <v>-0.165</v>
       </c>
       <c r="C23">
-        <v>-0.13</v>
+        <v>-0.211</v>
       </c>
       <c r="D23">
-        <v>-0.165</v>
+        <v>-0.262</v>
       </c>
       <c r="E23">
-        <v>-0.211</v>
+        <v>-0.301</v>
       </c>
       <c r="F23">
-        <v>-0.127</v>
+        <v>-0.204</v>
       </c>
       <c r="G23">
-        <v>-0.154</v>
+        <v>-0.255</v>
       </c>
       <c r="H23">
-        <v>-0.204</v>
+        <v>-0.33</v>
       </c>
       <c r="I23">
-        <v>-0.255</v>
+        <v>-0.387</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -877,28 +877,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.098</v>
+        <v>0.138</v>
       </c>
       <c r="C24">
-        <v>0.111</v>
+        <v>0.176</v>
       </c>
       <c r="D24">
-        <v>0.138</v>
+        <v>0.233</v>
       </c>
       <c r="E24">
-        <v>0.176</v>
+        <v>0.298</v>
       </c>
       <c r="F24">
-        <v>0.122</v>
+        <v>0.185</v>
       </c>
       <c r="G24">
-        <v>0.146</v>
+        <v>0.225</v>
       </c>
       <c r="H24">
-        <v>0.185</v>
+        <v>0.302</v>
       </c>
       <c r="I24">
-        <v>0.225</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -937,28 +937,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.119</v>
+        <v>-0.176</v>
       </c>
       <c r="C28">
-        <v>-0.138</v>
+        <v>-0.222</v>
       </c>
       <c r="D28">
-        <v>-0.176</v>
+        <v>-0.268</v>
       </c>
       <c r="E28">
-        <v>-0.222</v>
+        <v>-0.3</v>
       </c>
       <c r="F28">
-        <v>-0.133</v>
+        <v>-0.217</v>
       </c>
       <c r="G28">
-        <v>-0.163</v>
+        <v>-0.268</v>
       </c>
       <c r="H28">
-        <v>-0.217</v>
+        <v>-0.34</v>
       </c>
       <c r="I28">
-        <v>-0.268</v>
+        <v>-0.392</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -966,28 +966,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.095</v>
+        <v>0.136</v>
       </c>
       <c r="C29">
-        <v>0.109</v>
+        <v>0.167</v>
       </c>
       <c r="D29">
-        <v>0.136</v>
+        <v>0.214</v>
       </c>
       <c r="E29">
-        <v>0.167</v>
+        <v>0.272</v>
       </c>
       <c r="F29">
-        <v>0.123</v>
+        <v>0.188</v>
       </c>
       <c r="G29">
-        <v>0.149</v>
+        <v>0.221</v>
       </c>
       <c r="H29">
-        <v>0.188</v>
+        <v>0.287</v>
       </c>
       <c r="I29">
-        <v>0.221</v>
+        <v>0.376</v>
       </c>
     </row>
   </sheetData>
@@ -1039,28 +1039,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.242</v>
+        <v>-0.491</v>
       </c>
       <c r="C3">
-        <v>-0.337</v>
+        <v>-0.511</v>
       </c>
       <c r="D3">
-        <v>-0.491</v>
+        <v>-0.475</v>
       </c>
       <c r="E3">
-        <v>-0.511</v>
+        <v>-0.444</v>
       </c>
       <c r="F3">
-        <v>-0.07099999999999999</v>
+        <v>-0.324</v>
       </c>
       <c r="G3">
-        <v>-0.187</v>
+        <v>-0.42</v>
       </c>
       <c r="H3">
-        <v>-0.324</v>
+        <v>-0.46</v>
       </c>
       <c r="I3">
-        <v>-0.42</v>
+        <v>-0.463</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1068,28 +1068,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.245</v>
+        <v>0.506</v>
       </c>
       <c r="C4">
-        <v>0.344</v>
+        <v>0.527</v>
       </c>
       <c r="D4">
-        <v>0.506</v>
+        <v>0.485</v>
       </c>
       <c r="E4">
-        <v>0.527</v>
+        <v>0.445</v>
       </c>
       <c r="F4">
-        <v>0.031</v>
+        <v>0.311</v>
       </c>
       <c r="G4">
-        <v>0.167</v>
+        <v>0.416</v>
       </c>
       <c r="H4">
-        <v>0.311</v>
+        <v>0.462</v>
       </c>
       <c r="I4">
-        <v>0.416</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.236</v>
+        <v>-0.465</v>
       </c>
       <c r="C8">
-        <v>-0.324</v>
+        <v>-0.482</v>
       </c>
       <c r="D8">
-        <v>-0.465</v>
+        <v>-0.45</v>
       </c>
       <c r="E8">
-        <v>-0.482</v>
+        <v>-0.421</v>
       </c>
       <c r="F8">
-        <v>-0.092</v>
+        <v>-0.327</v>
       </c>
       <c r="G8">
-        <v>-0.193</v>
+        <v>-0.415</v>
       </c>
       <c r="H8">
-        <v>-0.327</v>
+        <v>-0.454</v>
       </c>
       <c r="I8">
-        <v>-0.415</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.245</v>
+        <v>0.487</v>
       </c>
       <c r="C9">
-        <v>0.336</v>
+        <v>0.507</v>
       </c>
       <c r="D9">
-        <v>0.487</v>
+        <v>0.468</v>
       </c>
       <c r="E9">
-        <v>0.507</v>
+        <v>0.433</v>
       </c>
       <c r="F9">
-        <v>0.057</v>
+        <v>0.32</v>
       </c>
       <c r="G9">
-        <v>0.179</v>
+        <v>0.419</v>
       </c>
       <c r="H9">
-        <v>0.32</v>
+        <v>0.464</v>
       </c>
       <c r="I9">
-        <v>0.419</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1217,28 +1217,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.221</v>
+        <v>-0.434</v>
       </c>
       <c r="C13">
-        <v>-0.3</v>
+        <v>-0.455</v>
       </c>
       <c r="D13">
-        <v>-0.434</v>
+        <v>-0.425</v>
       </c>
       <c r="E13">
-        <v>-0.455</v>
+        <v>-0.396</v>
       </c>
       <c r="F13">
-        <v>-0.105</v>
+        <v>-0.341</v>
       </c>
       <c r="G13">
-        <v>-0.212</v>
+        <v>-0.42</v>
       </c>
       <c r="H13">
-        <v>-0.341</v>
+        <v>-0.457</v>
       </c>
       <c r="I13">
-        <v>-0.42</v>
+        <v>-0.465</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1246,28 +1246,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.238</v>
+        <v>0.461</v>
       </c>
       <c r="C14">
-        <v>0.32</v>
+        <v>0.486</v>
       </c>
       <c r="D14">
-        <v>0.461</v>
+        <v>0.451</v>
       </c>
       <c r="E14">
-        <v>0.486</v>
+        <v>0.421</v>
       </c>
       <c r="F14">
-        <v>0.093</v>
+        <v>0.35</v>
       </c>
       <c r="G14">
-        <v>0.215</v>
+        <v>0.438</v>
       </c>
       <c r="H14">
-        <v>0.35</v>
+        <v>0.479</v>
       </c>
       <c r="I14">
-        <v>0.438</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1306,28 +1306,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.093</v>
+        <v>-0.328</v>
       </c>
       <c r="C18">
-        <v>-0.189</v>
+        <v>-0.384</v>
       </c>
       <c r="D18">
-        <v>-0.328</v>
+        <v>-0.364</v>
       </c>
       <c r="E18">
-        <v>-0.384</v>
+        <v>-0.344</v>
       </c>
       <c r="F18">
-        <v>-0.16</v>
+        <v>-0.515</v>
       </c>
       <c r="G18">
-        <v>-0.439</v>
+        <v>-0.54</v>
       </c>
       <c r="H18">
-        <v>-0.515</v>
+        <v>-0.55</v>
       </c>
       <c r="I18">
-        <v>-0.54</v>
+        <v>-0.547</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1335,28 +1335,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.098</v>
+        <v>0.339</v>
       </c>
       <c r="C19">
-        <v>0.186</v>
+        <v>0.414</v>
       </c>
       <c r="D19">
-        <v>0.339</v>
+        <v>0.424</v>
       </c>
       <c r="E19">
-        <v>0.414</v>
+        <v>0.444</v>
       </c>
       <c r="F19">
-        <v>0.354</v>
+        <v>0.591</v>
       </c>
       <c r="G19">
-        <v>0.521</v>
+        <v>0.606</v>
       </c>
       <c r="H19">
-        <v>0.591</v>
+        <v>0.608</v>
       </c>
       <c r="I19">
-        <v>0.606</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.127</v>
+        <v>-0.312</v>
       </c>
       <c r="C23">
-        <v>-0.21</v>
+        <v>-0.345</v>
       </c>
       <c r="D23">
-        <v>-0.312</v>
+        <v>-0.328</v>
       </c>
       <c r="E23">
-        <v>-0.345</v>
+        <v>-0.313</v>
       </c>
       <c r="F23">
-        <v>-0.2</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="G23">
-        <v>-0.509</v>
+        <v>-0.556</v>
       </c>
       <c r="H23">
-        <v>-0.5639999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="I23">
-        <v>-0.556</v>
+        <v>-0.538</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1424,28 +1424,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.102</v>
+        <v>0.233</v>
       </c>
       <c r="C24">
-        <v>0.157</v>
+        <v>0.293</v>
       </c>
       <c r="D24">
-        <v>0.233</v>
+        <v>0.332</v>
       </c>
       <c r="E24">
-        <v>0.293</v>
+        <v>0.379</v>
       </c>
       <c r="F24">
-        <v>0.484</v>
+        <v>0.657</v>
       </c>
       <c r="G24">
-        <v>0.647</v>
+        <v>0.609</v>
       </c>
       <c r="H24">
-        <v>0.657</v>
+        <v>0.587</v>
       </c>
       <c r="I24">
-        <v>0.609</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1484,28 +1484,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.148</v>
+        <v>-0.32</v>
       </c>
       <c r="C28">
-        <v>-0.228</v>
+        <v>-0.338</v>
       </c>
       <c r="D28">
-        <v>-0.32</v>
+        <v>-0.318</v>
       </c>
       <c r="E28">
-        <v>-0.338</v>
+        <v>-0.3</v>
       </c>
       <c r="F28">
-        <v>-0.216</v>
+        <v>-0.582</v>
       </c>
       <c r="G28">
-        <v>-0.53</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="H28">
-        <v>-0.582</v>
+        <v>-0.549</v>
       </c>
       <c r="I28">
-        <v>-0.5629999999999999</v>
+        <v>-0.531</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1513,28 +1513,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.108</v>
+        <v>0.193</v>
       </c>
       <c r="C29">
-        <v>0.148</v>
+        <v>0.238</v>
       </c>
       <c r="D29">
-        <v>0.193</v>
+        <v>0.288</v>
       </c>
       <c r="E29">
-        <v>0.238</v>
+        <v>0.346</v>
       </c>
       <c r="F29">
-        <v>0.551</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="G29">
-        <v>0.704</v>
+        <v>0.607</v>
       </c>
       <c r="H29">
-        <v>0.6870000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="I29">
-        <v>0.607</v>
+        <v>0.578</v>
       </c>
     </row>
   </sheetData>
